--- a/Overview - Video Games.xlsx
+++ b/Overview - Video Games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF28722-8925-F142-958D-1E9D0C2157FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A8BA84-5588-40EA-80E0-CDF83C86AA05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12220" activeTab="1" xr2:uid="{241F2393-9455-43D4-B289-8A800D465992}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{241F2393-9455-43D4-B289-8A800D465992}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener - Interactive Ent." sheetId="1" r:id="rId1"/>
@@ -25,22 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="613">
   <si>
     <r>
       <t>▴</t>
@@ -1905,17 +1895,32 @@
   <si>
     <t>Founded</t>
   </si>
+  <si>
+    <t>EV/E</t>
+  </si>
+  <si>
+    <t>EV/S</t>
+  </si>
+  <si>
+    <t>Released</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Upside</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2006,6 +2011,19 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2198,7 +2216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2281,13 +2299,13 @@
     <xf numFmtId="15" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2305,13 +2323,13 @@
     <xf numFmtId="10" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2334,34 +2352,57 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2393,12 +2434,12 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>15.890499999999999</v>
+            <v>4.9249999999999998</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>626.40350999999998</v>
+            <v>194.14349999999999</v>
           </cell>
         </row>
         <row r="11">
@@ -2408,7 +2449,7 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>626.40350999999998</v>
+            <v>194.14349999999999</v>
           </cell>
         </row>
         <row r="23">
@@ -2421,17 +2462,8 @@
             <v>1994</v>
           </cell>
         </row>
-        <row r="25">
-          <cell r="C25"/>
-        </row>
-        <row r="26">
-          <cell r="C26"/>
-        </row>
-        <row r="27">
-          <cell r="C27"/>
-        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2804,25 +2836,25 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="42"/>
-    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="42"/>
+    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2866,7 +2898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2910,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -2952,7 +2984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>17</v>
       </c>
@@ -2996,7 +3028,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>25</v>
       </c>
@@ -3040,7 +3072,7 @@
         <v>-1.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>31</v>
       </c>
@@ -3084,7 +3116,7 @@
         <v>-9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>35</v>
       </c>
@@ -3128,7 +3160,7 @@
         <v>-2.52E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
         <v>42</v>
       </c>
@@ -3172,7 +3204,7 @@
         <v>4.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>47</v>
       </c>
@@ -3216,7 +3248,7 @@
         <v>-3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
         <v>53</v>
       </c>
@@ -3260,7 +3292,7 @@
         <v>-5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>59</v>
       </c>
@@ -3304,7 +3336,7 @@
         <v>-1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>66</v>
       </c>
@@ -3348,7 +3380,7 @@
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>71</v>
       </c>
@@ -3392,7 +3424,7 @@
         <v>2.0199999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
         <v>76</v>
       </c>
@@ -3436,7 +3468,7 @@
         <v>-2.0400000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
         <v>81</v>
       </c>
@@ -3480,7 +3512,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
         <v>88</v>
       </c>
@@ -3524,7 +3556,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
         <v>93</v>
       </c>
@@ -3568,7 +3600,7 @@
         <v>3.5499999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40" t="s">
         <v>99</v>
       </c>
@@ -3612,7 +3644,7 @@
         <v>3.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>103</v>
       </c>
@@ -3656,7 +3688,7 @@
         <v>2.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>3888</v>
       </c>
@@ -3700,7 +3732,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>115</v>
       </c>
@@ -3744,7 +3776,7 @@
         <v>1.46E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="40" t="s">
         <v>121</v>
       </c>
@@ -3788,7 +3820,7 @@
         <v>-1.6899999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>127</v>
       </c>
@@ -3832,7 +3864,7 @@
         <v>7.5499999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
         <v>131</v>
       </c>
@@ -3876,7 +3908,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>136</v>
       </c>
@@ -3920,7 +3952,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
         <v>142</v>
       </c>
@@ -3964,7 +3996,7 @@
         <v>-7.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>148</v>
       </c>
@@ -4008,7 +4040,7 @@
         <v>-1.23E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="40" t="s">
         <v>155</v>
       </c>
@@ -4052,7 +4084,7 @@
         <v>-4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>1089</v>
       </c>
@@ -4096,7 +4128,7 @@
         <v>6.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="40" t="s">
         <v>165</v>
       </c>
@@ -4140,7 +4172,7 @@
         <v>3.1236999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>170</v>
       </c>
@@ -4184,7 +4216,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
         <v>175</v>
       </c>
@@ -4228,7 +4260,7 @@
         <v>3.4599999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
         <v>180</v>
       </c>
@@ -4272,7 +4304,7 @@
         <v>-1.54E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="40" t="s">
         <v>186</v>
       </c>
@@ -4316,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>797</v>
       </c>
@@ -4360,7 +4392,7 @@
         <v>2.8199999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="40" t="s">
         <v>196</v>
       </c>
@@ -4404,7 +4436,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
         <v>202</v>
       </c>
@@ -4448,7 +4480,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="s">
         <v>208</v>
       </c>
@@ -4492,7 +4524,7 @@
         <v>-3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>214</v>
       </c>
@@ -4536,7 +4568,7 @@
         <v>1.6299999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="40" t="s">
         <v>219</v>
       </c>
@@ -4580,7 +4612,7 @@
         <v>4.4400000000000002E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>799</v>
       </c>
@@ -4624,7 +4656,7 @@
         <v>4.65E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="40" t="s">
         <v>228</v>
       </c>
@@ -4668,7 +4700,7 @@
         <v>1.09E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="41" t="s">
         <v>234</v>
       </c>
@@ -4712,7 +4744,7 @@
         <v>-1.83E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="40" t="s">
         <v>240</v>
       </c>
@@ -4756,7 +4788,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
         <v>245</v>
       </c>
@@ -4800,7 +4832,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="40" t="s">
         <v>251</v>
       </c>
@@ -4844,7 +4876,7 @@
         <v>-2.6599999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
         <v>256</v>
       </c>
@@ -4888,7 +4920,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="40" t="s">
         <v>261</v>
       </c>
@@ -4932,7 +4964,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="41" t="s">
         <v>266</v>
       </c>
@@ -4976,7 +5008,7 @@
         <v>-0.1182</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="40" t="s">
         <v>271</v>
       </c>
@@ -5020,7 +5052,7 @@
         <v>-1.32E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
         <v>148</v>
       </c>
@@ -5064,7 +5096,7 @@
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="40" t="s">
         <v>282</v>
       </c>
@@ -5108,7 +5140,7 @@
         <v>-3.09E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
         <v>288</v>
       </c>
@@ -5152,7 +5184,7 @@
         <v>1.43E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="40" t="s">
         <v>294</v>
       </c>
@@ -5196,7 +5228,7 @@
         <v>-0.11899999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="41" t="s">
         <v>298</v>
       </c>
@@ -5240,7 +5272,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>2100</v>
       </c>
@@ -5284,7 +5316,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>1980</v>
       </c>
@@ -5328,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="40" t="s">
         <v>312</v>
       </c>
@@ -5372,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="41" t="s">
         <v>318</v>
       </c>
@@ -5416,7 +5448,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>1180</v>
       </c>
@@ -5460,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="41" t="s">
         <v>271</v>
       </c>
@@ -5504,7 +5536,7 @@
         <v>-3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="40" t="s">
         <v>332</v>
       </c>
@@ -5548,7 +5580,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>1022</v>
       </c>
@@ -5592,7 +5624,7 @@
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="40" t="s">
         <v>341</v>
       </c>
@@ -5636,7 +5668,7 @@
         <v>-1.35E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>347</v>
       </c>
@@ -5680,7 +5712,7 @@
         <v>-2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="40" t="s">
         <v>351</v>
       </c>
@@ -5724,7 +5756,7 @@
         <v>-9.5200000000000007E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="41" t="s">
         <v>357</v>
       </c>
@@ -5768,7 +5800,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="40" t="s">
         <v>361</v>
       </c>
@@ -5812,7 +5844,7 @@
         <v>-1.32E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="41">
         <v>434</v>
       </c>
@@ -5856,7 +5888,7 @@
         <v>-4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>6860</v>
       </c>
@@ -5900,7 +5932,7 @@
         <v>-6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>377</v>
       </c>
@@ -5944,7 +5976,7 @@
         <v>-6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>6899</v>
       </c>
@@ -5988,7 +6020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
         <v>388</v>
       </c>
@@ -6032,7 +6064,7 @@
         <v>-1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="40" t="s">
         <v>394</v>
       </c>
@@ -6076,7 +6108,7 @@
         <v>7.7799999999999994E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="41" t="s">
         <v>399</v>
       </c>
@@ -6120,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="40" t="s">
         <v>403</v>
       </c>
@@ -6164,7 +6196,7 @@
         <v>-5.3E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="41" t="s">
         <v>408</v>
       </c>
@@ -6208,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="40" t="s">
         <v>413</v>
       </c>
@@ -6252,7 +6284,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="41">
         <v>2022</v>
       </c>
@@ -6296,7 +6328,7 @@
         <v>4.1099999999999998E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="40" t="s">
         <v>423</v>
       </c>
@@ -6340,7 +6372,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="41" t="s">
         <v>429</v>
       </c>
@@ -6384,7 +6416,7 @@
         <v>-6.88E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="40" t="s">
         <v>435</v>
       </c>
@@ -6428,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="41">
         <v>484</v>
       </c>
@@ -6472,7 +6504,7 @@
         <v>1.15E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="40" t="s">
         <v>444</v>
       </c>
@@ -6516,7 +6548,7 @@
         <v>-6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="41" t="s">
         <v>449</v>
       </c>
@@ -6560,7 +6592,7 @@
         <v>8.4199999999999997E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="40" t="s">
         <v>455</v>
       </c>
@@ -6604,7 +6636,7 @@
         <v>7.6899999999999996E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="41" t="s">
         <v>461</v>
       </c>
@@ -6648,7 +6680,7 @@
         <v>6.8312999999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="40" t="s">
         <v>466</v>
       </c>
@@ -6692,7 +6724,7 @@
         <v>-2.4400000000000002E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="41" t="s">
         <v>472</v>
       </c>
@@ -6736,7 +6768,7 @@
         <v>-1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="40" t="s">
         <v>478</v>
       </c>
@@ -6780,7 +6812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="41" t="s">
         <v>485</v>
       </c>
@@ -6824,7 +6856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="40" t="s">
         <v>490</v>
       </c>
@@ -6868,7 +6900,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="41" t="s">
         <v>496</v>
       </c>
@@ -6912,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="40" t="s">
         <v>501</v>
       </c>
@@ -6956,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="41" t="s">
         <v>506</v>
       </c>
@@ -7000,7 +7032,7 @@
         <v>-0.2727</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="40" t="s">
         <v>512</v>
       </c>
@@ -7044,7 +7076,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="41" t="s">
         <v>518</v>
       </c>
@@ -7088,7 +7120,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="40" t="s">
         <v>524</v>
       </c>
@@ -7132,7 +7164,7 @@
         <v>-1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="41" t="s">
         <v>528</v>
       </c>
@@ -7176,7 +7208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="40" t="s">
         <v>532</v>
       </c>
@@ -7220,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="41" t="s">
         <v>532</v>
       </c>
@@ -7264,7 +7296,7 @@
         <v>4.0399999999999998E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="40" t="s">
         <v>543</v>
       </c>
@@ -7308,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="41" t="s">
         <v>549</v>
       </c>
@@ -7352,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="40" t="s">
         <v>554</v>
       </c>
@@ -7396,7 +7428,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="41" t="s">
         <v>560</v>
       </c>
@@ -7440,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="40" t="s">
         <v>565</v>
       </c>
@@ -7611,29 +7643,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA11F49-38A5-4A76-81B0-A144DE239010}">
-  <dimension ref="A2:Z21"/>
+  <dimension ref="A2:AE21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="43"/>
-    <col min="3" max="3" width="30.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="43"/>
-    <col min="6" max="6" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="25" width="9.1640625" style="43"/>
-    <col min="26" max="26" width="14.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.1640625" style="43"/>
+    <col min="1" max="1" width="4.140625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="43"/>
+    <col min="3" max="3" width="30.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="43"/>
+    <col min="6" max="6" width="11.7109375" style="56" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="56"/>
+    <col min="10" max="11" width="9.140625" style="43"/>
+    <col min="12" max="13" width="9.140625" style="64"/>
+    <col min="14" max="24" width="9.140625" style="43"/>
+    <col min="25" max="28" width="9.140625" style="56"/>
+    <col min="29" max="30" width="9.140625" style="43"/>
+    <col min="31" max="31" width="14.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43"/>
       <c r="B2" s="44" t="s">
         <v>567</v>
@@ -7647,245 +7684,273 @@
       <c r="E2" s="44" t="s">
         <v>569</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="55" t="s">
         <v>570</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="55" t="s">
         <v>571</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="55" t="s">
         <v>572</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="55" t="s">
         <v>573</v>
       </c>
       <c r="J2" s="45" t="s">
         <v>574</v>
       </c>
       <c r="K2" s="45" t="s">
+        <v>610</v>
+      </c>
+      <c r="L2" s="63" t="s">
+        <v>611</v>
+      </c>
+      <c r="M2" s="63" t="s">
+        <v>612</v>
+      </c>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45" t="s">
         <v>597</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="P2" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="Q2" s="45" t="s">
         <v>599</v>
       </c>
-      <c r="O2" s="44" t="s">
-        <v>600</v>
-      </c>
-      <c r="P2" s="44" t="s">
-        <v>601</v>
-      </c>
-      <c r="Q2" s="44" t="s">
-        <v>602</v>
-      </c>
-      <c r="R2" s="44" t="s">
-        <v>603</v>
+      <c r="S2" s="45" t="s">
+        <v>604</v>
       </c>
       <c r="T2" s="45" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="U2" s="45" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="V2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="44" t="s">
+      <c r="W2" s="45" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y2" s="55" t="s">
+        <v>600</v>
+      </c>
+      <c r="Z2" s="55" t="s">
+        <v>601</v>
+      </c>
+      <c r="AA2" s="55" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB2" s="55" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD2" s="44" t="s">
         <v>607</v>
       </c>
-      <c r="Z2" s="45" t="s">
+      <c r="AE2" s="45" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C3" s="46"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="Y3" s="54"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="Y4" s="54"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="AD3" s="51"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="AD4" s="51"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
         <v>586</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>587</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="51" t="s">
         <v>588</v>
       </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="Y5" s="54"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="AD5" s="51"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
         <v>577</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="51" t="s">
         <v>588</v>
       </c>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="Y6" s="54"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="AD6" s="51"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B7" s="43" t="s">
         <v>578</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="51" t="s">
         <v>588</v>
       </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="Y7" s="54"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="AD7" s="51"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B8" s="43" t="s">
         <v>81</v>
       </c>
       <c r="C8" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="51" t="s">
         <v>589</v>
       </c>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="Y8" s="54"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="AD8" s="51"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B9" s="43" t="s">
         <v>580</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="Y9" s="54"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="AD9" s="51"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B10" s="43" t="s">
         <v>127</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="Y10" s="54"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="AD10" s="51"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B11" s="43" t="s">
         <v>186</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>590</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="Y11" s="54"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B12" s="56" t="s">
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="AD11" s="51"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B12" s="52" t="s">
         <v>196</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>591</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="51" t="s">
         <v>595</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="51" t="s">
         <v>596</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="58">
         <f>[1]Main!$C$6</f>
-        <v>15.890499999999999</v>
-      </c>
-      <c r="G12" s="55">
+        <v>4.9249999999999998</v>
+      </c>
+      <c r="G12" s="57">
         <f>[1]Main!$C$8</f>
-        <v>626.40350999999998</v>
-      </c>
-      <c r="H12" s="55">
+        <v>194.14349999999999</v>
+      </c>
+      <c r="H12" s="57">
         <f>[1]Main!$C$11</f>
         <v>0</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="57">
         <f>[1]Main!$C$12</f>
-        <v>626.40350999999998</v>
-      </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54">
+        <v>194.14349999999999</v>
+      </c>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51">
         <f>[1]Main!$C$25</f>
         <v>0</v>
       </c>
-      <c r="L12" s="54">
+      <c r="P12" s="51">
         <f>[1]Main!$C$26</f>
         <v>0</v>
       </c>
-      <c r="M12" s="54">
+      <c r="Q12" s="51">
         <f>[1]Main!$C$27</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="54">
+      <c r="AD12" s="51">
         <f>[1]Main!$C$24</f>
         <v>1994</v>
       </c>
-      <c r="Z12" s="54" t="str">
+      <c r="AE12" s="51" t="str">
         <f>[1]Main!$C$23</f>
         <v>Cambridge, UK</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="43" t="s">
         <v>575</v>
       </c>
@@ -7895,109 +7960,117 @@
       <c r="C13" s="43" t="s">
         <v>592</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="51" t="s">
         <v>595</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="Y13" s="54"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="E13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="AD13" s="51"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B14" s="43" t="s">
         <v>581</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="Y14" s="54"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B15" s="56" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="AD14" s="51"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B15" s="52" t="s">
         <v>593</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>594</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="51" t="s">
         <v>595</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="51" t="s">
         <v>596</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="59">
         <f>[2]Main!$C$6</f>
         <v>1.155</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="57">
         <f>[2]Main!$C$8</f>
         <v>235.07715000000002</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="57">
         <f>[2]Main!$C$11</f>
         <v>0</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="57">
         <f>[2]Main!$C$12</f>
         <v>235.07715000000002</v>
       </c>
-      <c r="K15" s="54">
+      <c r="O15" s="51">
         <f>[2]Main!$C$25</f>
         <v>10</v>
       </c>
-      <c r="L15" s="54">
+      <c r="P15" s="51">
         <f>[2]Main!$C$26</f>
         <v>70</v>
       </c>
-      <c r="M15" s="54">
+      <c r="Q15" s="51">
         <f>[2]Main!$C$27</f>
         <v>30</v>
       </c>
-      <c r="Y15" s="54">
+      <c r="AD15" s="51">
         <f>[2]Main!$C$24</f>
         <v>2011</v>
       </c>
-      <c r="Z15" s="54" t="str">
+      <c r="AE15" s="51" t="str">
         <f>[2]Main!$C$23</f>
         <v>Washington, US</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D19" s="59" t="s">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D19" s="53" t="s">
         <v>582</v>
       </c>
-      <c r="E19" s="60"/>
-      <c r="F19" s="47" t="s">
+      <c r="E19" s="54"/>
+      <c r="F19" s="60" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D20" s="48" t="s">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D20" s="47" t="s">
         <v>584</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="48">
         <v>0.8458</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="61">
         <f>1/E20</f>
         <v>1.1823126034523528</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D21" s="51" t="s">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D21" s="49" t="s">
         <v>585</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="50">
         <v>0.84</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="62">
         <f>1/E21</f>
         <v>1.1904761904761905</v>
       </c>

--- a/Overview - Video Games.xlsx
+++ b/Overview - Video Games.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A8BA84-5588-40EA-80E0-CDF83C86AA05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376F6DCA-71C4-45CA-B06B-27EAA76765CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{241F2393-9455-43D4-B289-8A800D465992}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="614">
   <si>
     <r>
       <t>▴</t>
@@ -1909,6 +1909,9 @@
   </si>
   <si>
     <t>Upside</t>
+  </si>
+  <si>
+    <t>IPO</t>
   </si>
 </sst>
 </file>
@@ -2368,12 +2371,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2403,6 +2400,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2462,8 +2465,17 @@
             <v>1994</v>
           </cell>
         </row>
+        <row r="25">
+          <cell r="C25"/>
+        </row>
+        <row r="26">
+          <cell r="C26"/>
+        </row>
+        <row r="27">
+          <cell r="C27"/>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7643,13 +7655,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA11F49-38A5-4A76-81B0-A144DE239010}">
-  <dimension ref="A2:AE21"/>
+  <dimension ref="A2:AF21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:B11"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7659,18 +7671,20 @@
     <col min="3" max="3" width="30.28515625" style="43" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="43"/>
-    <col min="6" max="6" width="11.7109375" style="56" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="56"/>
+    <col min="6" max="6" width="11.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="54"/>
     <col min="10" max="11" width="9.140625" style="43"/>
-    <col min="12" max="13" width="9.140625" style="64"/>
+    <col min="12" max="13" width="9.140625" style="62"/>
     <col min="14" max="24" width="9.140625" style="43"/>
-    <col min="25" max="28" width="9.140625" style="56"/>
-    <col min="29" max="30" width="9.140625" style="43"/>
-    <col min="31" max="31" width="14.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="43"/>
+    <col min="25" max="28" width="9.140625" style="54"/>
+    <col min="29" max="29" width="9.140625" style="43"/>
+    <col min="30" max="30" width="9.140625" style="51"/>
+    <col min="31" max="31" width="9.140625" style="43"/>
+    <col min="32" max="32" width="14.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43"/>
       <c r="B2" s="44" t="s">
         <v>567</v>
@@ -7684,16 +7698,16 @@
       <c r="E2" s="44" t="s">
         <v>569</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="53" t="s">
         <v>570</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="53" t="s">
         <v>571</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="53" t="s">
         <v>572</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="53" t="s">
         <v>573</v>
       </c>
       <c r="J2" s="45" t="s">
@@ -7702,10 +7716,10 @@
       <c r="K2" s="45" t="s">
         <v>610</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="61" t="s">
         <v>611</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="61" t="s">
         <v>612</v>
       </c>
       <c r="N2" s="45"/>
@@ -7733,43 +7747,46 @@
       <c r="W2" s="45" t="s">
         <v>608</v>
       </c>
-      <c r="Y2" s="55" t="s">
+      <c r="Y2" s="53" t="s">
         <v>600</v>
       </c>
-      <c r="Z2" s="55" t="s">
+      <c r="Z2" s="53" t="s">
         <v>601</v>
       </c>
-      <c r="AA2" s="55" t="s">
+      <c r="AA2" s="53" t="s">
         <v>602</v>
       </c>
-      <c r="AB2" s="55" t="s">
+      <c r="AB2" s="53" t="s">
         <v>603</v>
       </c>
-      <c r="AD2" s="44" t="s">
+      <c r="AD2" s="45" t="s">
+        <v>613</v>
+      </c>
+      <c r="AE2" s="44" t="s">
         <v>607</v>
       </c>
-      <c r="AE2" s="45" t="s">
+      <c r="AF2" s="45" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C3" s="46"/>
       <c r="D3" s="51"/>
       <c r="E3" s="51"/>
       <c r="O3" s="51"/>
       <c r="P3" s="51"/>
       <c r="Q3" s="51"/>
-      <c r="AD3" s="51"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE3" s="51"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="51"/>
-      <c r="AD4" s="51"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE4" s="51"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
         <v>586</v>
       </c>
@@ -7785,9 +7802,9 @@
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="51"/>
-      <c r="AD5" s="51"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE5" s="51"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
         <v>577</v>
       </c>
@@ -7803,9 +7820,9 @@
       <c r="O6" s="51"/>
       <c r="P6" s="51"/>
       <c r="Q6" s="51"/>
-      <c r="AD6" s="51"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE6" s="51"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B7" s="43" t="s">
         <v>578</v>
       </c>
@@ -7821,9 +7838,9 @@
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="51"/>
-      <c r="AD7" s="51"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE7" s="51"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B8" s="43" t="s">
         <v>81</v>
       </c>
@@ -7839,9 +7856,9 @@
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="51"/>
-      <c r="AD8" s="51"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE8" s="51"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B9" s="43" t="s">
         <v>580</v>
       </c>
@@ -7857,9 +7874,9 @@
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="51"/>
-      <c r="AD9" s="51"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE9" s="51"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B10" s="43" t="s">
         <v>127</v>
       </c>
@@ -7870,14 +7887,14 @@
       <c r="E10" s="51"/>
       <c r="J10" s="51"/>
       <c r="K10" s="51"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
       <c r="N10" s="51"/>
       <c r="O10" s="51"/>
       <c r="P10" s="51"/>
-      <c r="AD10" s="51"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE10" s="51"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B11" s="43" t="s">
         <v>186</v>
       </c>
@@ -7888,14 +7905,14 @@
       <c r="E11" s="51"/>
       <c r="J11" s="51"/>
       <c r="K11" s="51"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
       <c r="N11" s="51"/>
       <c r="O11" s="51"/>
       <c r="P11" s="51"/>
-      <c r="AD11" s="51"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE11" s="51"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" s="52" t="s">
         <v>196</v>
       </c>
@@ -7908,26 +7925,26 @@
       <c r="E12" s="51" t="s">
         <v>596</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="56">
         <f>[1]Main!$C$6</f>
         <v>4.9249999999999998</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="55">
         <f>[1]Main!$C$8</f>
         <v>194.14349999999999</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="55">
         <f>[1]Main!$C$11</f>
         <v>0</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="55">
         <f>[1]Main!$C$12</f>
         <v>194.14349999999999</v>
       </c>
       <c r="J12" s="51"/>
       <c r="K12" s="51"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
       <c r="N12" s="51"/>
       <c r="O12" s="51">
         <f>[1]Main!$C$25</f>
@@ -7941,16 +7958,16 @@
         <f>[1]Main!$C$27</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="51">
+      <c r="AE12" s="51">
         <f>[1]Main!$C$24</f>
         <v>1994</v>
       </c>
-      <c r="AE12" s="51" t="str">
+      <c r="AF12" s="51" t="str">
         <f>[1]Main!$C$23</f>
         <v>Cambridge, UK</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="43" t="s">
         <v>575</v>
       </c>
@@ -7966,14 +7983,14 @@
       <c r="E13" s="51"/>
       <c r="J13" s="51"/>
       <c r="K13" s="51"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
       <c r="N13" s="51"/>
       <c r="O13" s="51"/>
       <c r="P13" s="51"/>
-      <c r="AD13" s="51"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE13" s="51"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B14" s="43" t="s">
         <v>581</v>
       </c>
@@ -7981,14 +7998,14 @@
       <c r="E14" s="51"/>
       <c r="J14" s="51"/>
       <c r="K14" s="51"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
       <c r="N14" s="51"/>
       <c r="O14" s="51"/>
       <c r="P14" s="51"/>
-      <c r="AD14" s="51"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE14" s="51"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
         <v>593</v>
       </c>
@@ -8001,19 +8018,19 @@
       <c r="E15" s="51" t="s">
         <v>596</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="57">
         <f>[2]Main!$C$6</f>
         <v>1.155</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="55">
         <f>[2]Main!$C$8</f>
         <v>235.07715000000002</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="55">
         <f>[2]Main!$C$11</f>
         <v>0</v>
       </c>
-      <c r="I15" s="57">
+      <c r="I15" s="55">
         <f>[2]Main!$C$12</f>
         <v>235.07715000000002</v>
       </c>
@@ -8029,25 +8046,25 @@
         <f>[2]Main!$C$27</f>
         <v>30</v>
       </c>
-      <c r="AD15" s="51">
+      <c r="AE15" s="51">
         <f>[2]Main!$C$24</f>
         <v>2011</v>
       </c>
-      <c r="AE15" s="51" t="str">
+      <c r="AF15" s="51" t="str">
         <f>[2]Main!$C$23</f>
         <v>Washington, US</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="51"/>
       <c r="E16" s="51"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="64" t="s">
         <v>582</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="60" t="s">
+      <c r="E19" s="65"/>
+      <c r="F19" s="58" t="s">
         <v>583</v>
       </c>
     </row>
@@ -8058,7 +8075,7 @@
       <c r="E20" s="48">
         <v>0.8458</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="59">
         <f>1/E20</f>
         <v>1.1823126034523528</v>
       </c>
@@ -8070,7 +8087,7 @@
       <c r="E21" s="50">
         <v>0.84</v>
       </c>
-      <c r="F21" s="62">
+      <c r="F21" s="60">
         <f>1/E21</f>
         <v>1.1904761904761905</v>
       </c>

--- a/Overview - Video Games.xlsx
+++ b/Overview - Video Games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376F6DCA-71C4-45CA-B06B-27EAA76765CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82E7593-5895-4ACB-A192-003EEF3DA981}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{241F2393-9455-43D4-B289-8A800D465992}"/>
   </bookViews>
@@ -19,6 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="618">
   <si>
     <r>
       <t>▴</t>
@@ -1913,17 +1914,28 @@
   <si>
     <t>IPO</t>
   </si>
+  <si>
+    <t>Focus Entertainment SA</t>
+  </si>
+  <si>
+    <t>S/O</t>
+  </si>
+  <si>
+    <t>Normalised to Pound Sterling (GBP)</t>
+  </si>
+  <si>
+    <t>2023 E</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2030,8 +2042,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2083,6 +2102,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2219,7 +2244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2377,9 +2402,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2406,6 +2428,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2537,6 +2568,55 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>33.75</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>6.16</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>207.9</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>207.9</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Paris, France</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>1996</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7655,13 +7735,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA11F49-38A5-4A76-81B0-A144DE239010}">
-  <dimension ref="A2:AF21"/>
+  <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7672,19 +7752,28 @@
     <col min="4" max="4" width="10.85546875" style="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="43"/>
     <col min="6" max="6" width="11.7109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="54"/>
-    <col min="10" max="11" width="9.140625" style="43"/>
-    <col min="12" max="13" width="9.140625" style="62"/>
-    <col min="14" max="24" width="9.140625" style="43"/>
-    <col min="25" max="28" width="9.140625" style="54"/>
-    <col min="29" max="29" width="9.140625" style="43"/>
-    <col min="30" max="30" width="9.140625" style="51"/>
+    <col min="7" max="10" width="9.140625" style="66"/>
+    <col min="11" max="12" width="9.140625" style="43"/>
+    <col min="13" max="14" width="9.140625" style="61"/>
+    <col min="15" max="25" width="9.140625" style="43"/>
+    <col min="26" max="30" width="9.140625" style="54"/>
     <col min="31" max="31" width="9.140625" style="43"/>
-    <col min="32" max="32" width="14.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="43"/>
+    <col min="32" max="32" width="9.140625" style="51"/>
+    <col min="33" max="33" width="9.140625" style="43"/>
+    <col min="34" max="34" width="14.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" s="44" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="F1" s="67" t="s">
+        <v>616</v>
+      </c>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+    </row>
+    <row r="2" spans="1:34" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43"/>
       <c r="B2" s="44" t="s">
         <v>567</v>
@@ -7701,92 +7790,98 @@
       <c r="F2" s="53" t="s">
         <v>570</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="65" t="s">
+        <v>615</v>
+      </c>
+      <c r="H2" s="65" t="s">
         <v>571</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="I2" s="65" t="s">
         <v>572</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="J2" s="65" t="s">
         <v>573</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="K2" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="L2" s="45" t="s">
         <v>610</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="M2" s="60" t="s">
         <v>611</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="N2" s="60" t="s">
         <v>612</v>
       </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="45"/>
+      <c r="P2" s="45" t="s">
         <v>597</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="Q2" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="R2" s="45" t="s">
         <v>599</v>
       </c>
-      <c r="S2" s="45" t="s">
+      <c r="T2" s="45" t="s">
         <v>604</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="U2" s="45" t="s">
         <v>605</v>
       </c>
-      <c r="U2" s="45" t="s">
+      <c r="V2" s="45" t="s">
         <v>609</v>
       </c>
-      <c r="V2" s="45" t="s">
+      <c r="W2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="45" t="s">
+      <c r="X2" s="45" t="s">
         <v>608</v>
       </c>
-      <c r="Y2" s="53" t="s">
+      <c r="Z2" s="53" t="s">
+        <v>617</v>
+      </c>
+      <c r="AA2" s="53" t="s">
         <v>600</v>
       </c>
-      <c r="Z2" s="53" t="s">
+      <c r="AB2" s="53" t="s">
         <v>601</v>
       </c>
-      <c r="AA2" s="53" t="s">
+      <c r="AC2" s="53" t="s">
         <v>602</v>
       </c>
-      <c r="AB2" s="53" t="s">
+      <c r="AD2" s="53" t="s">
         <v>603</v>
       </c>
-      <c r="AD2" s="45" t="s">
+      <c r="AF2" s="45" t="s">
         <v>613</v>
       </c>
-      <c r="AE2" s="44" t="s">
+      <c r="AG2" s="44" t="s">
         <v>607</v>
       </c>
-      <c r="AF2" s="45" t="s">
+      <c r="AH2" s="45" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C3" s="46"/>
       <c r="D3" s="51"/>
       <c r="E3" s="51"/>
-      <c r="O3" s="51"/>
       <c r="P3" s="51"/>
       <c r="Q3" s="51"/>
-      <c r="AE3" s="51"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="R3" s="51"/>
+      <c r="AG3" s="51"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
-      <c r="O4" s="51"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="51"/>
-      <c r="AE4" s="51"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="R4" s="51"/>
+      <c r="AG4" s="51"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
         <v>586</v>
       </c>
@@ -7799,12 +7894,12 @@
       <c r="E5" s="51" t="s">
         <v>588</v>
       </c>
-      <c r="O5" s="51"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="51"/>
-      <c r="AE5" s="51"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="R5" s="51"/>
+      <c r="AG5" s="51"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
         <v>577</v>
       </c>
@@ -7817,12 +7912,12 @@
       <c r="E6" s="51" t="s">
         <v>588</v>
       </c>
-      <c r="O6" s="51"/>
       <c r="P6" s="51"/>
       <c r="Q6" s="51"/>
-      <c r="AE6" s="51"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="R6" s="51"/>
+      <c r="AG6" s="51"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B7" s="43" t="s">
         <v>578</v>
       </c>
@@ -7835,12 +7930,12 @@
       <c r="E7" s="51" t="s">
         <v>588</v>
       </c>
-      <c r="O7" s="51"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="51"/>
-      <c r="AE7" s="51"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="R7" s="51"/>
+      <c r="AG7" s="51"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B8" s="43" t="s">
         <v>81</v>
       </c>
@@ -7853,12 +7948,12 @@
       <c r="E8" s="51" t="s">
         <v>589</v>
       </c>
-      <c r="O8" s="51"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="51"/>
-      <c r="AE8" s="51"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="R8" s="51"/>
+      <c r="AG8" s="51"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B9" s="43" t="s">
         <v>580</v>
       </c>
@@ -7871,12 +7966,12 @@
       <c r="E9" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="51"/>
-      <c r="AE9" s="51"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="R9" s="51"/>
+      <c r="AG9" s="51"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B10" s="43" t="s">
         <v>127</v>
       </c>
@@ -7885,16 +7980,16 @@
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
-      <c r="J10" s="51"/>
       <c r="K10" s="51"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
       <c r="O10" s="51"/>
       <c r="P10" s="51"/>
-      <c r="AE10" s="51"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="Q10" s="51"/>
+      <c r="AG10" s="51"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B11" s="43" t="s">
         <v>186</v>
       </c>
@@ -7903,16 +7998,16 @@
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="51"/>
-      <c r="J11" s="51"/>
       <c r="K11" s="51"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
       <c r="O11" s="51"/>
       <c r="P11" s="51"/>
-      <c r="AE11" s="51"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="Q11" s="51"/>
+      <c r="AG11" s="51"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B12" s="52" t="s">
         <v>196</v>
       </c>
@@ -7925,49 +8020,49 @@
       <c r="E12" s="51" t="s">
         <v>596</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="55">
         <f>[1]Main!$C$6</f>
         <v>4.9249999999999998</v>
       </c>
-      <c r="G12" s="55">
+      <c r="H12" s="66">
         <f>[1]Main!$C$8</f>
         <v>194.14349999999999</v>
       </c>
-      <c r="H12" s="55">
+      <c r="I12" s="66">
         <f>[1]Main!$C$11</f>
         <v>0</v>
       </c>
-      <c r="I12" s="55">
+      <c r="J12" s="66">
         <f>[1]Main!$C$12</f>
         <v>194.14349999999999</v>
       </c>
-      <c r="J12" s="51"/>
       <c r="K12" s="51"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51">
+      <c r="L12" s="51"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51">
         <f>[1]Main!$C$25</f>
         <v>0</v>
       </c>
-      <c r="P12" s="51">
+      <c r="Q12" s="51">
         <f>[1]Main!$C$26</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="51">
+      <c r="R12" s="51">
         <f>[1]Main!$C$27</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="51">
+      <c r="AG12" s="51">
         <f>[1]Main!$C$24</f>
         <v>1994</v>
       </c>
-      <c r="AF12" s="51" t="str">
+      <c r="AH12" s="51" t="str">
         <f>[1]Main!$C$23</f>
         <v>Cambridge, UK</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="43" t="s">
         <v>575</v>
       </c>
@@ -7981,31 +8076,75 @@
         <v>595</v>
       </c>
       <c r="E13" s="51"/>
-      <c r="J13" s="51"/>
       <c r="K13" s="51"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
       <c r="O13" s="51"/>
       <c r="P13" s="51"/>
-      <c r="AE13" s="51"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B14" s="43" t="s">
+      <c r="Q13" s="51"/>
+      <c r="AG13" s="51"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B14" s="52" t="s">
         <v>581</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="J14" s="51"/>
+      <c r="C14" s="43" t="s">
+        <v>614</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>579</v>
+      </c>
+      <c r="F14" s="54">
+        <f>[3]Main!$C$6*E21</f>
+        <v>28.349999999999998</v>
+      </c>
+      <c r="G14" s="66">
+        <f>[3]Main!$C$7</f>
+        <v>6.16</v>
+      </c>
+      <c r="H14" s="66">
+        <f>[3]Main!$C$8*$E$21</f>
+        <v>174.636</v>
+      </c>
+      <c r="I14" s="66">
+        <f>[3]Main!$C$11*$E$21</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="66">
+        <f>[3]Main!$C$12*$E$21</f>
+        <v>174.636</v>
+      </c>
       <c r="K14" s="51"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
       <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="AE14" s="51"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="P14" s="51">
+        <f>[3]Main!$C$27</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="51">
+        <f>[3]Main!$C$28</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="51">
+        <f>[3]Main!$C$29</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="51">
+        <f>[3]Main!$C$24</f>
+        <v>1996</v>
+      </c>
+      <c r="AH14" s="51" t="str">
+        <f>[3]Main!$C$23</f>
+        <v>Paris, France</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
         <v>593</v>
       </c>
@@ -8018,53 +8157,53 @@
       <c r="E15" s="51" t="s">
         <v>596</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="56">
         <f>[2]Main!$C$6</f>
         <v>1.155</v>
       </c>
-      <c r="G15" s="55">
+      <c r="H15" s="66">
         <f>[2]Main!$C$8</f>
         <v>235.07715000000002</v>
       </c>
-      <c r="H15" s="55">
+      <c r="I15" s="66">
         <f>[2]Main!$C$11</f>
         <v>0</v>
       </c>
-      <c r="I15" s="55">
+      <c r="J15" s="66">
         <f>[2]Main!$C$12</f>
         <v>235.07715000000002</v>
       </c>
-      <c r="O15" s="51">
+      <c r="P15" s="51">
         <f>[2]Main!$C$25</f>
         <v>10</v>
       </c>
-      <c r="P15" s="51">
+      <c r="Q15" s="51">
         <f>[2]Main!$C$26</f>
         <v>70</v>
       </c>
-      <c r="Q15" s="51">
+      <c r="R15" s="51">
         <f>[2]Main!$C$27</f>
         <v>30</v>
       </c>
-      <c r="AE15" s="51">
+      <c r="AG15" s="51">
         <f>[2]Main!$C$24</f>
         <v>2011</v>
       </c>
-      <c r="AF15" s="51" t="str">
+      <c r="AH15" s="51" t="str">
         <f>[2]Main!$C$23</f>
         <v>Washington, US</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="D16" s="51"/>
       <c r="E16" s="51"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="63" t="s">
         <v>582</v>
       </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="58" t="s">
+      <c r="E19" s="64"/>
+      <c r="F19" s="57" t="s">
         <v>583</v>
       </c>
     </row>
@@ -8075,7 +8214,7 @@
       <c r="E20" s="48">
         <v>0.8458</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="58">
         <f>1/E20</f>
         <v>1.1823126034523528</v>
       </c>
@@ -8087,19 +8226,22 @@
       <c r="E21" s="50">
         <v>0.84</v>
       </c>
-      <c r="F21" s="60">
+      <c r="F21" s="59">
         <f>1/E21</f>
         <v>1.1904761904761905</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F1:J1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B15" r:id="rId1" xr:uid="{492A76F4-4882-4A78-B48A-FE2771E6353E}"/>
     <hyperlink ref="B12" r:id="rId2" xr:uid="{FF627AC4-0649-433C-9977-CAE6BE5385C4}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{7B76C08B-C15A-49CB-8685-38243193D2C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Overview - Video Games.xlsx
+++ b/Overview - Video Games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82E7593-5895-4ACB-A192-003EEF3DA981}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855BCE8E-98FC-4FCA-ABF8-A9D824794792}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{241F2393-9455-43D4-B289-8A800D465992}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2424,17 +2425,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2517,6 +2518,55 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>33.75</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>6.16</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>207.9</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>207.9</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Paris, France</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>1996</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
     </sheetNames>
     <sheetDataSet>
@@ -2573,7 +2623,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2583,17 +2633,17 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>33.75</v>
+            <v>141.83000000000001</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>6.16</v>
+            <v>169.83</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>207.9</v>
+            <v>24086.988900000004</v>
           </cell>
         </row>
         <row r="11">
@@ -2603,17 +2653,17 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>207.9</v>
+            <v>24086.988900000004</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>Paris, France</v>
+            <v>NYC, NY</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>1996</v>
+            <v>1993</v>
           </cell>
         </row>
       </sheetData>
@@ -7741,7 +7791,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7752,7 +7802,7 @@
     <col min="4" max="4" width="10.85546875" style="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="43"/>
     <col min="6" max="6" width="11.7109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.140625" style="66"/>
+    <col min="7" max="10" width="9.140625" style="64"/>
     <col min="11" max="12" width="9.140625" style="43"/>
     <col min="13" max="14" width="9.140625" style="61"/>
     <col min="15" max="25" width="9.140625" style="43"/>
@@ -7790,16 +7840,16 @@
       <c r="F2" s="53" t="s">
         <v>570</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="63" t="s">
         <v>571</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="63" t="s">
         <v>572</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="63" t="s">
         <v>573</v>
       </c>
       <c r="K2" s="45" t="s">
@@ -7918,7 +7968,7 @@
       <c r="AG6" s="51"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="52" t="s">
         <v>578</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -7929,11 +7979,38 @@
       </c>
       <c r="E7" s="51" t="s">
         <v>588</v>
+      </c>
+      <c r="F7" s="56">
+        <f>[4]Main!$C$6*E20</f>
+        <v>113.46400000000001</v>
+      </c>
+      <c r="G7" s="64">
+        <f>[4]Main!$C$7</f>
+        <v>169.83</v>
+      </c>
+      <c r="H7" s="64">
+        <f>[4]Main!$C$8*E20</f>
+        <v>19269.591120000005</v>
+      </c>
+      <c r="I7" s="64">
+        <f>[4]Main!$C$11*E20</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="64">
+        <f>[4]Main!$C$12*E20</f>
+        <v>19269.591120000005</v>
       </c>
       <c r="P7" s="51"/>
       <c r="Q7" s="51"/>
       <c r="R7" s="51"/>
-      <c r="AG7" s="51"/>
+      <c r="AG7" s="51">
+        <f>[4]Main!$C$24</f>
+        <v>1993</v>
+      </c>
+      <c r="AH7" s="51" t="str">
+        <f>[4]Main!$C$23</f>
+        <v>NYC, NY</v>
+      </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B8" s="43" t="s">
@@ -8024,15 +8101,15 @@
         <f>[1]Main!$C$6</f>
         <v>4.9249999999999998</v>
       </c>
-      <c r="H12" s="66">
+      <c r="H12" s="64">
         <f>[1]Main!$C$8</f>
         <v>194.14349999999999</v>
       </c>
-      <c r="I12" s="66">
+      <c r="I12" s="64">
         <f>[1]Main!$C$11</f>
         <v>0</v>
       </c>
-      <c r="J12" s="66">
+      <c r="J12" s="64">
         <f>[1]Main!$C$12</f>
         <v>194.14349999999999</v>
       </c>
@@ -8099,23 +8176,23 @@
         <v>579</v>
       </c>
       <c r="F14" s="54">
-        <f>[3]Main!$C$6*E21</f>
+        <f>[2]Main!$C$6*E21</f>
         <v>28.349999999999998</v>
       </c>
-      <c r="G14" s="66">
-        <f>[3]Main!$C$7</f>
+      <c r="G14" s="64">
+        <f>[2]Main!$C$7</f>
         <v>6.16</v>
       </c>
-      <c r="H14" s="66">
-        <f>[3]Main!$C$8*$E$21</f>
+      <c r="H14" s="64">
+        <f>[2]Main!$C$8*$E$21</f>
         <v>174.636</v>
       </c>
-      <c r="I14" s="66">
-        <f>[3]Main!$C$11*$E$21</f>
+      <c r="I14" s="64">
+        <f>[2]Main!$C$11*$E$21</f>
         <v>0</v>
       </c>
-      <c r="J14" s="66">
-        <f>[3]Main!$C$12*$E$21</f>
+      <c r="J14" s="64">
+        <f>[2]Main!$C$12*$E$21</f>
         <v>174.636</v>
       </c>
       <c r="K14" s="51"/>
@@ -8124,23 +8201,23 @@
       <c r="N14" s="62"/>
       <c r="O14" s="51"/>
       <c r="P14" s="51">
-        <f>[3]Main!$C$27</f>
+        <f>[2]Main!$C$27</f>
         <v>0</v>
       </c>
       <c r="Q14" s="51">
-        <f>[3]Main!$C$28</f>
+        <f>[2]Main!$C$28</f>
         <v>0</v>
       </c>
       <c r="R14" s="51">
-        <f>[3]Main!$C$29</f>
+        <f>[2]Main!$C$29</f>
         <v>0</v>
       </c>
       <c r="AG14" s="51">
-        <f>[3]Main!$C$24</f>
+        <f>[2]Main!$C$24</f>
         <v>1996</v>
       </c>
       <c r="AH14" s="51" t="str">
-        <f>[3]Main!$C$23</f>
+        <f>[2]Main!$C$23</f>
         <v>Paris, France</v>
       </c>
     </row>
@@ -8158,39 +8235,39 @@
         <v>596</v>
       </c>
       <c r="F15" s="56">
-        <f>[2]Main!$C$6</f>
+        <f>[3]Main!$C$6</f>
         <v>1.155</v>
       </c>
-      <c r="H15" s="66">
-        <f>[2]Main!$C$8</f>
+      <c r="H15" s="64">
+        <f>[3]Main!$C$8</f>
         <v>235.07715000000002</v>
       </c>
-      <c r="I15" s="66">
-        <f>[2]Main!$C$11</f>
+      <c r="I15" s="64">
+        <f>[3]Main!$C$11</f>
         <v>0</v>
       </c>
-      <c r="J15" s="66">
-        <f>[2]Main!$C$12</f>
+      <c r="J15" s="64">
+        <f>[3]Main!$C$12</f>
         <v>235.07715000000002</v>
       </c>
       <c r="P15" s="51">
-        <f>[2]Main!$C$25</f>
+        <f>[3]Main!$C$25</f>
         <v>10</v>
       </c>
       <c r="Q15" s="51">
-        <f>[2]Main!$C$26</f>
+        <f>[3]Main!$C$26</f>
         <v>70</v>
       </c>
       <c r="R15" s="51">
-        <f>[2]Main!$C$27</f>
+        <f>[3]Main!$C$27</f>
         <v>30</v>
       </c>
       <c r="AG15" s="51">
-        <f>[2]Main!$C$24</f>
+        <f>[3]Main!$C$24</f>
         <v>2011</v>
       </c>
       <c r="AH15" s="51" t="str">
-        <f>[2]Main!$C$23</f>
+        <f>[3]Main!$C$23</f>
         <v>Washington, US</v>
       </c>
     </row>
@@ -8199,10 +8276,10 @@
       <c r="E16" s="51"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="65" t="s">
         <v>582</v>
       </c>
-      <c r="E19" s="64"/>
+      <c r="E19" s="66"/>
       <c r="F19" s="57" t="s">
         <v>583</v>
       </c>
@@ -8212,11 +8289,11 @@
         <v>584</v>
       </c>
       <c r="E20" s="48">
-        <v>0.8458</v>
+        <v>0.8</v>
       </c>
       <c r="F20" s="58">
         <f>1/E20</f>
-        <v>1.1823126034523528</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.2">
@@ -8240,8 +8317,9 @@
     <hyperlink ref="B15" r:id="rId1" xr:uid="{492A76F4-4882-4A78-B48A-FE2771E6353E}"/>
     <hyperlink ref="B12" r:id="rId2" xr:uid="{FF627AC4-0649-433C-9977-CAE6BE5385C4}"/>
     <hyperlink ref="B14" r:id="rId3" xr:uid="{7B76C08B-C15A-49CB-8685-38243193D2C8}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{D0C7F4E2-1E58-4B5D-A93E-35211C64E1BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
+  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Overview - Video Games.xlsx
+++ b/Overview - Video Games.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855BCE8E-98FC-4FCA-ABF8-A9D824794792}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B57EB75-1B40-4DC1-B5E1-A8FBA42F8709}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{241F2393-9455-43D4-B289-8A800D465992}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="619">
   <si>
     <r>
       <t>▴</t>
@@ -1927,14 +1928,18 @@
   <si>
     <t>2023 E</t>
   </si>
+  <si>
+    <t>Employees</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.0\x"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -2245,7 +2250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2440,6 +2445,12 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2463,18 +2474,22 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Financial Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>4.9249999999999998</v>
+            <v>141.83000000000001</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>169.83</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>194.14349999999999</v>
+            <v>24086.988900000004</v>
           </cell>
         </row>
         <row r="11">
@@ -2484,30 +2499,20 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>194.14349999999999</v>
+            <v>24086.988900000004</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>Cambridge, UK</v>
+            <v>NYC, NY</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>1994</v>
+            <v>1993</v>
           </cell>
         </row>
-        <row r="25">
-          <cell r="C25"/>
-        </row>
-        <row r="26">
-          <cell r="C26"/>
-        </row>
-        <row r="27">
-          <cell r="C27"/>
-        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2518,22 +2523,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>33.75</v>
+            <v>2.75</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>6.16</v>
+            <v>145.80000000000001</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>207.9</v>
+            <v>400.95000000000005</v>
           </cell>
         </row>
         <row r="11">
@@ -2543,20 +2549,44 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>207.9</v>
+            <v>400.95000000000005</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>Paris, France</v>
+            <v>Wakefield, UK</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>1996</v>
+            <v>1990</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2018</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>438</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33" t="str">
+            <v>H123</v>
+          </cell>
+          <cell r="D33">
+            <v>45188</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>1.5479168086347954</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2628,22 +2658,18 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>141.83000000000001</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>169.83</v>
+            <v>4.9249999999999998</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>24086.988900000004</v>
+            <v>194.14349999999999</v>
           </cell>
         </row>
         <row r="11">
@@ -2653,18 +2679,86 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>24086.988900000004</v>
+            <v>194.14349999999999</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>NYC, NY</v>
+            <v>Cambridge, UK</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>1993</v>
+            <v>1994</v>
           </cell>
+        </row>
+        <row r="25">
+          <cell r="C25"/>
+        </row>
+        <row r="26">
+          <cell r="C26"/>
+        </row>
+        <row r="27">
+          <cell r="C27"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>33.75</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>6.16</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>207.9</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>207.9</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Paris, France</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>1996</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27"/>
+        </row>
+        <row r="28">
+          <cell r="C28"/>
+        </row>
+        <row r="29">
+          <cell r="C29"/>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -7785,13 +7879,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA11F49-38A5-4A76-81B0-A144DE239010}">
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7801,20 +7895,24 @@
     <col min="3" max="3" width="30.28515625" style="43" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="43"/>
-    <col min="6" max="6" width="11.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="54" customWidth="1"/>
     <col min="7" max="10" width="9.140625" style="64"/>
-    <col min="11" max="12" width="9.140625" style="43"/>
+    <col min="11" max="12" width="9.140625" style="51"/>
     <col min="13" max="14" width="9.140625" style="61"/>
-    <col min="15" max="25" width="9.140625" style="43"/>
-    <col min="26" max="30" width="9.140625" style="54"/>
-    <col min="31" max="31" width="9.140625" style="43"/>
-    <col min="32" max="32" width="9.140625" style="51"/>
+    <col min="15" max="19" width="9.140625" style="43"/>
+    <col min="20" max="20" width="10.85546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="43"/>
+    <col min="22" max="26" width="9.140625" style="51"/>
+    <col min="27" max="27" width="9.140625" style="43"/>
+    <col min="28" max="32" width="9.140625" style="54"/>
     <col min="33" max="33" width="9.140625" style="43"/>
-    <col min="34" max="34" width="14.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="43"/>
+    <col min="34" max="34" width="9.140625" style="51"/>
+    <col min="35" max="35" width="9.140625" style="43"/>
+    <col min="36" max="36" width="14.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="F1" s="67" t="s">
         <v>616</v>
       </c>
@@ -7823,7 +7921,7 @@
       <c r="I1" s="67"/>
       <c r="J1" s="67"/>
     </row>
-    <row r="2" spans="1:34" s="44" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43"/>
       <c r="B2" s="44" t="s">
         <v>567</v>
@@ -7875,63 +7973,66 @@
         <v>599</v>
       </c>
       <c r="T2" s="45" t="s">
+        <v>618</v>
+      </c>
+      <c r="V2" s="45" t="s">
         <v>604</v>
       </c>
-      <c r="U2" s="45" t="s">
+      <c r="W2" s="45" t="s">
         <v>605</v>
       </c>
-      <c r="V2" s="45" t="s">
+      <c r="X2" s="45" t="s">
         <v>609</v>
       </c>
-      <c r="W2" s="45" t="s">
+      <c r="Y2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="45" t="s">
+      <c r="Z2" s="45" t="s">
         <v>608</v>
       </c>
-      <c r="Z2" s="53" t="s">
+      <c r="AB2" s="53" t="s">
         <v>617</v>
       </c>
-      <c r="AA2" s="53" t="s">
+      <c r="AC2" s="53" t="s">
         <v>600</v>
       </c>
-      <c r="AB2" s="53" t="s">
+      <c r="AD2" s="53" t="s">
         <v>601</v>
       </c>
-      <c r="AC2" s="53" t="s">
+      <c r="AE2" s="53" t="s">
         <v>602</v>
       </c>
-      <c r="AD2" s="53" t="s">
+      <c r="AF2" s="53" t="s">
         <v>603</v>
       </c>
-      <c r="AF2" s="45" t="s">
+      <c r="AH2" s="45" t="s">
         <v>613</v>
       </c>
-      <c r="AG2" s="44" t="s">
+      <c r="AI2" s="44" t="s">
         <v>607</v>
       </c>
-      <c r="AH2" s="45" t="s">
+      <c r="AJ2" s="45" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C3" s="46"/>
       <c r="D3" s="51"/>
       <c r="E3" s="51"/>
       <c r="P3" s="51"/>
       <c r="Q3" s="51"/>
       <c r="R3" s="51"/>
-      <c r="AG3" s="51"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI3" s="51"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="51"/>
       <c r="R4" s="51"/>
-      <c r="AG4" s="51"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI4" s="51"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
         <v>586</v>
       </c>
@@ -7947,9 +8048,9 @@
       <c r="P5" s="51"/>
       <c r="Q5" s="51"/>
       <c r="R5" s="51"/>
-      <c r="AG5" s="51"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI5" s="51"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
         <v>577</v>
       </c>
@@ -7965,9 +8066,9 @@
       <c r="P6" s="51"/>
       <c r="Q6" s="51"/>
       <c r="R6" s="51"/>
-      <c r="AG6" s="51"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI6" s="51"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
         <v>578</v>
       </c>
@@ -7981,38 +8082,38 @@
         <v>588</v>
       </c>
       <c r="F7" s="56">
-        <f>[4]Main!$C$6*E20</f>
+        <f>[1]Main!$C$6*E20</f>
         <v>113.46400000000001</v>
       </c>
       <c r="G7" s="64">
-        <f>[4]Main!$C$7</f>
+        <f>[1]Main!$C$7</f>
         <v>169.83</v>
       </c>
       <c r="H7" s="64">
-        <f>[4]Main!$C$8*E20</f>
+        <f>[1]Main!$C$8*E20</f>
         <v>19269.591120000005</v>
       </c>
       <c r="I7" s="64">
-        <f>[4]Main!$C$11*E20</f>
+        <f>[1]Main!$C$11*E20</f>
         <v>0</v>
       </c>
       <c r="J7" s="64">
-        <f>[4]Main!$C$12*E20</f>
+        <f>[1]Main!$C$12*E20</f>
         <v>19269.591120000005</v>
       </c>
       <c r="P7" s="51"/>
       <c r="Q7" s="51"/>
       <c r="R7" s="51"/>
-      <c r="AG7" s="51">
-        <f>[4]Main!$C$24</f>
+      <c r="AI7" s="51">
+        <f>[1]Main!$C$24</f>
         <v>1993</v>
       </c>
-      <c r="AH7" s="51" t="str">
-        <f>[4]Main!$C$23</f>
+      <c r="AJ7" s="51" t="str">
+        <f>[1]Main!$C$23</f>
         <v>NYC, NY</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B8" s="43" t="s">
         <v>81</v>
       </c>
@@ -8028,9 +8129,9 @@
       <c r="P8" s="51"/>
       <c r="Q8" s="51"/>
       <c r="R8" s="51"/>
-      <c r="AG8" s="51"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI8" s="51"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B9" s="43" t="s">
         <v>580</v>
       </c>
@@ -8046,9 +8147,9 @@
       <c r="P9" s="51"/>
       <c r="Q9" s="51"/>
       <c r="R9" s="51"/>
-      <c r="AG9" s="51"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI9" s="51"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B10" s="43" t="s">
         <v>127</v>
       </c>
@@ -8057,16 +8158,14 @@
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
       <c r="M10" s="62"/>
       <c r="N10" s="62"/>
       <c r="O10" s="51"/>
       <c r="P10" s="51"/>
       <c r="Q10" s="51"/>
-      <c r="AG10" s="51"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI10" s="51"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B11" s="43" t="s">
         <v>186</v>
       </c>
@@ -8075,21 +8174,22 @@
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
       <c r="M11" s="62"/>
       <c r="N11" s="62"/>
       <c r="O11" s="51"/>
       <c r="P11" s="51"/>
       <c r="Q11" s="51"/>
-      <c r="AG11" s="51"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI11" s="51"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>575</v>
+      </c>
       <c r="B12" s="52" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>595</v>
@@ -8097,181 +8197,231 @@
       <c r="E12" s="51" t="s">
         <v>596</v>
       </c>
-      <c r="F12" s="55">
-        <f>[1]Main!$C$6</f>
-        <v>4.9249999999999998</v>
+      <c r="F12" s="54">
+        <f>[2]Main!$C$6</f>
+        <v>2.75</v>
+      </c>
+      <c r="G12" s="64">
+        <f>[2]Main!$C$7</f>
+        <v>145.80000000000001</v>
       </c>
       <c r="H12" s="64">
-        <f>[1]Main!$C$8</f>
-        <v>194.14349999999999</v>
+        <f>[2]Main!$C$8</f>
+        <v>400.95000000000005</v>
       </c>
       <c r="I12" s="64">
-        <f>[1]Main!$C$11</f>
+        <f>[2]Main!$C$11</f>
         <v>0</v>
       </c>
       <c r="J12" s="64">
-        <f>[1]Main!$C$12</f>
-        <v>194.14349999999999</v>
-      </c>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
+        <f>[2]Main!$C$12</f>
+        <v>400.95000000000005</v>
+      </c>
+      <c r="K12" s="51" t="str">
+        <f>+[2]Main!$C$33</f>
+        <v>H123</v>
+      </c>
+      <c r="L12" s="68">
+        <f>+[2]Main!$D$33</f>
+        <v>45188</v>
+      </c>
       <c r="M12" s="62"/>
       <c r="N12" s="62"/>
       <c r="O12" s="51"/>
       <c r="P12" s="51">
-        <f>[1]Main!$C$25</f>
+        <f>[2]Main!$C$27</f>
         <v>0</v>
       </c>
       <c r="Q12" s="51">
-        <f>[1]Main!$C$26</f>
+        <f>[2]Main!$C$28</f>
         <v>0</v>
       </c>
       <c r="R12" s="51">
-        <f>[1]Main!$C$27</f>
+        <f>[2]Main!$C$29</f>
         <v>0</v>
       </c>
-      <c r="AG12" s="51">
-        <f>[1]Main!$C$24</f>
-        <v>1994</v>
-      </c>
-      <c r="AH12" s="51" t="str">
-        <f>[1]Main!$C$23</f>
-        <v>Cambridge, UK</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
-        <v>575</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>202</v>
+      <c r="T12" s="51">
+        <f>+[2]Main!$C$31</f>
+        <v>438</v>
+      </c>
+      <c r="V12" s="69">
+        <f>+[2]Main!$C$38</f>
+        <v>1.5479168086347954</v>
+      </c>
+      <c r="AH12" s="51">
+        <f>[2]Main!$C$25</f>
+        <v>2018</v>
+      </c>
+      <c r="AI12" s="51">
+        <f>[2]Main!$C$24</f>
+        <v>1990</v>
+      </c>
+      <c r="AJ12" s="51" t="str">
+        <f>[2]Main!$C$23</f>
+        <v>Wakefield, UK</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B13" s="52" t="s">
+        <v>593</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D13" s="51" t="s">
         <v>595</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="AG13" s="51"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="E13" s="51" t="s">
+        <v>596</v>
+      </c>
+      <c r="F13" s="56">
+        <f>[3]Main!$C$6</f>
+        <v>1.155</v>
+      </c>
+      <c r="H13" s="64">
+        <f>[3]Main!$C$8</f>
+        <v>235.07715000000002</v>
+      </c>
+      <c r="I13" s="64">
+        <f>[3]Main!$C$11</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="64">
+        <f>[3]Main!$C$12</f>
+        <v>235.07715000000002</v>
+      </c>
+      <c r="P13" s="51">
+        <f>[3]Main!$C$25</f>
+        <v>10</v>
+      </c>
+      <c r="Q13" s="51">
+        <f>[3]Main!$C$26</f>
+        <v>70</v>
+      </c>
+      <c r="R13" s="51">
+        <f>[3]Main!$C$27</f>
+        <v>30</v>
+      </c>
+      <c r="AI13" s="51">
+        <f>[3]Main!$C$24</f>
+        <v>2011</v>
+      </c>
+      <c r="AJ13" s="51" t="str">
+        <f>[3]Main!$C$23</f>
+        <v>Washington, US</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B14" s="52" t="s">
-        <v>581</v>
+        <v>196</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>95</v>
+        <v>595</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>579</v>
-      </c>
-      <c r="F14" s="54">
-        <f>[2]Main!$C$6*E21</f>
-        <v>28.349999999999998</v>
-      </c>
-      <c r="G14" s="64">
-        <f>[2]Main!$C$7</f>
-        <v>6.16</v>
+        <v>596</v>
+      </c>
+      <c r="F14" s="55">
+        <f>[4]Main!$C$6</f>
+        <v>4.9249999999999998</v>
       </c>
       <c r="H14" s="64">
-        <f>[2]Main!$C$8*$E$21</f>
-        <v>174.636</v>
+        <f>[4]Main!$C$8</f>
+        <v>194.14349999999999</v>
       </c>
       <c r="I14" s="64">
-        <f>[2]Main!$C$11*$E$21</f>
+        <f>[4]Main!$C$11</f>
         <v>0</v>
       </c>
       <c r="J14" s="64">
-        <f>[2]Main!$C$12*$E$21</f>
-        <v>174.636</v>
-      </c>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
+        <f>[4]Main!$C$12</f>
+        <v>194.14349999999999</v>
+      </c>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="51"/>
       <c r="P14" s="51">
-        <f>[2]Main!$C$27</f>
+        <f>[4]Main!$C$25</f>
         <v>0</v>
       </c>
       <c r="Q14" s="51">
-        <f>[2]Main!$C$28</f>
+        <f>[4]Main!$C$26</f>
         <v>0</v>
       </c>
       <c r="R14" s="51">
-        <f>[2]Main!$C$29</f>
+        <f>[4]Main!$C$27</f>
         <v>0</v>
       </c>
-      <c r="AG14" s="51">
-        <f>[2]Main!$C$24</f>
+      <c r="AI14" s="51">
+        <f>[4]Main!$C$24</f>
+        <v>1994</v>
+      </c>
+      <c r="AJ14" s="51" t="str">
+        <f>[4]Main!$C$23</f>
+        <v>Cambridge, UK</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B15" s="52" t="s">
+        <v>581</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>614</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>579</v>
+      </c>
+      <c r="F15" s="54">
+        <f>[5]Main!$C$6*E21</f>
+        <v>28.349999999999998</v>
+      </c>
+      <c r="G15" s="64">
+        <f>[5]Main!$C$7</f>
+        <v>6.16</v>
+      </c>
+      <c r="H15" s="64">
+        <f>[5]Main!$C$8*$E$21</f>
+        <v>174.636</v>
+      </c>
+      <c r="I15" s="64">
+        <f>[5]Main!$C$11*$E$21</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="64">
+        <f>[5]Main!$C$12*$E$21</f>
+        <v>174.636</v>
+      </c>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51">
+        <f>[5]Main!$C$27</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="51">
+        <f>[5]Main!$C$28</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="51">
+        <f>[5]Main!$C$29</f>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="51">
+        <f>[5]Main!$C$24</f>
         <v>1996</v>
       </c>
-      <c r="AH14" s="51" t="str">
-        <f>[2]Main!$C$23</f>
+      <c r="AJ15" s="51" t="str">
+        <f>[5]Main!$C$23</f>
         <v>Paris, France</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B15" s="52" t="s">
-        <v>593</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>594</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>595</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>596</v>
-      </c>
-      <c r="F15" s="56">
-        <f>[3]Main!$C$6</f>
-        <v>1.155</v>
-      </c>
-      <c r="H15" s="64">
-        <f>[3]Main!$C$8</f>
-        <v>235.07715000000002</v>
-      </c>
-      <c r="I15" s="64">
-        <f>[3]Main!$C$11</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="64">
-        <f>[3]Main!$C$12</f>
-        <v>235.07715000000002</v>
-      </c>
-      <c r="P15" s="51">
-        <f>[3]Main!$C$25</f>
-        <v>10</v>
-      </c>
-      <c r="Q15" s="51">
-        <f>[3]Main!$C$26</f>
-        <v>70</v>
-      </c>
-      <c r="R15" s="51">
-        <f>[3]Main!$C$27</f>
-        <v>30</v>
-      </c>
-      <c r="AG15" s="51">
-        <f>[3]Main!$C$24</f>
-        <v>2011</v>
-      </c>
-      <c r="AH15" s="51" t="str">
-        <f>[3]Main!$C$23</f>
-        <v>Washington, US</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="D16" s="51"/>
       <c r="E16" s="51"/>
     </row>
@@ -8314,12 +8464,13 @@
     <mergeCell ref="F1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" xr:uid="{492A76F4-4882-4A78-B48A-FE2771E6353E}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{FF627AC4-0649-433C-9977-CAE6BE5385C4}"/>
-    <hyperlink ref="B14" r:id="rId3" xr:uid="{7B76C08B-C15A-49CB-8685-38243193D2C8}"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{492A76F4-4882-4A78-B48A-FE2771E6353E}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{FF627AC4-0649-433C-9977-CAE6BE5385C4}"/>
+    <hyperlink ref="B15" r:id="rId3" xr:uid="{7B76C08B-C15A-49CB-8685-38243193D2C8}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{D0C7F4E2-1E58-4B5D-A93E-35211C64E1BD}"/>
+    <hyperlink ref="B12" r:id="rId5" xr:uid="{2C0365FD-29AB-4B4C-B5D9-9DB5F0FDE789}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
+  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Overview - Video Games.xlsx
+++ b/Overview - Video Games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B57EB75-1B40-4DC1-B5E1-A8FBA42F8709}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6F5E54-776C-42FF-9610-15F051A77210}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{241F2393-9455-43D4-B289-8A800D465992}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="618">
   <si>
     <r>
       <t>▴</t>
@@ -1785,9 +1785,6 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>Share Price</t>
-  </si>
-  <si>
     <t>MCAP</t>
   </si>
   <si>
@@ -1939,7 +1936,7 @@
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="0.0\x"/>
+    <numFmt numFmtId="165" formatCode="0.0\x"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -2056,7 +2053,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2114,6 +2111,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2250,7 +2253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2436,6 +2439,12 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2445,10 +2454,7 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2544,12 +2550,12 @@
         </row>
         <row r="11">
           <cell r="C11">
-            <v>0</v>
+            <v>45.158999999999999</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>400.95000000000005</v>
+            <v>355.79100000000005</v>
           </cell>
         </row>
         <row r="23">
@@ -2565,6 +2571,11 @@
         <row r="25">
           <cell r="C25">
             <v>2018</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>3</v>
           </cell>
         </row>
         <row r="31">
@@ -7882,10 +7893,10 @@
   <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T1:T1048576"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7913,13 +7924,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="F1" s="67" t="s">
-        <v>616</v>
-      </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
+      <c r="F1" s="69" t="s">
+        <v>615</v>
+      </c>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:36" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43"/>
@@ -7927,7 +7938,7 @@
         <v>567</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>568</v>
@@ -7936,89 +7947,91 @@
         <v>569</v>
       </c>
       <c r="F2" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>614</v>
+      </c>
+      <c r="H2" s="63" t="s">
         <v>570</v>
       </c>
-      <c r="G2" s="63" t="s">
-        <v>615</v>
-      </c>
-      <c r="H2" s="63" t="s">
+      <c r="I2" s="63" t="s">
         <v>571</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="J2" s="63" t="s">
         <v>572</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="K2" s="45" t="s">
         <v>573</v>
       </c>
-      <c r="K2" s="45" t="s">
-        <v>574</v>
-      </c>
       <c r="L2" s="45" t="s">
+        <v>609</v>
+      </c>
+      <c r="M2" s="60" t="s">
         <v>610</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="N2" s="60" t="s">
         <v>611</v>
-      </c>
-      <c r="N2" s="60" t="s">
-        <v>612</v>
       </c>
       <c r="O2" s="45"/>
       <c r="P2" s="45" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q2" s="45" t="s">
         <v>597</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="R2" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="R2" s="45" t="s">
-        <v>599</v>
-      </c>
       <c r="T2" s="45" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V2" s="45" t="s">
+        <v>603</v>
+      </c>
+      <c r="W2" s="45" t="s">
         <v>604</v>
       </c>
-      <c r="W2" s="45" t="s">
-        <v>605</v>
-      </c>
       <c r="X2" s="45" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="Y2" s="45" t="s">
         <v>9</v>
       </c>
       <c r="Z2" s="45" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AB2" s="53" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AC2" s="53" t="s">
+        <v>599</v>
+      </c>
+      <c r="AD2" s="53" t="s">
         <v>600</v>
       </c>
-      <c r="AD2" s="53" t="s">
+      <c r="AE2" s="53" t="s">
         <v>601</v>
       </c>
-      <c r="AE2" s="53" t="s">
+      <c r="AF2" s="53" t="s">
         <v>602</v>
       </c>
-      <c r="AF2" s="53" t="s">
-        <v>603</v>
-      </c>
       <c r="AH2" s="45" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AI2" s="44" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AJ2" s="45" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C3" s="46"/>
       <c r="D3" s="51"/>
       <c r="E3" s="51"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
       <c r="P3" s="51"/>
       <c r="Q3" s="51"/>
       <c r="R3" s="51"/>
@@ -8027,6 +8040,8 @@
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="51"/>
       <c r="R4" s="51"/>
@@ -8034,17 +8049,19 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
+        <v>585</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>586</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>587</v>
       </c>
       <c r="D5" s="51" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>588</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="51"/>
       <c r="R5" s="51"/>
@@ -8052,7 +8069,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>43</v>
@@ -8061,8 +8078,10 @@
         <v>19</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>588</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
       <c r="P6" s="51"/>
       <c r="Q6" s="51"/>
       <c r="R6" s="51"/>
@@ -8070,7 +8089,7 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>72</v>
@@ -8079,7 +8098,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F7" s="56">
         <f>[1]Main!$C$6*E20</f>
@@ -8101,6 +8120,8 @@
         <f>[1]Main!$C$12*E20</f>
         <v>19269.591120000005</v>
       </c>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="51"/>
       <c r="R7" s="51"/>
@@ -8124,8 +8145,10 @@
         <v>83</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>589</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="51"/>
       <c r="R8" s="51"/>
@@ -8133,7 +8156,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B9" s="43" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>94</v>
@@ -8142,8 +8165,10 @@
         <v>95</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>579</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="51"/>
       <c r="R9" s="51"/>
@@ -8158,6 +8183,8 @@
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
       <c r="M10" s="62"/>
       <c r="N10" s="62"/>
       <c r="O10" s="51"/>
@@ -8170,10 +8197,12 @@
         <v>186</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="51"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
       <c r="M11" s="62"/>
       <c r="N11" s="62"/>
       <c r="O11" s="51"/>
@@ -8183,19 +8212,19 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B12" s="52" t="s">
         <v>202</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D12" s="51" t="s">
+        <v>594</v>
+      </c>
+      <c r="E12" s="51" t="s">
         <v>595</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>596</v>
       </c>
       <c r="F12" s="54">
         <f>[2]Main!$C$6</f>
@@ -8211,17 +8240,17 @@
       </c>
       <c r="I12" s="64">
         <f>[2]Main!$C$11</f>
-        <v>0</v>
+        <v>45.158999999999999</v>
       </c>
       <c r="J12" s="64">
         <f>[2]Main!$C$12</f>
-        <v>400.95000000000005</v>
+        <v>355.79100000000005</v>
       </c>
       <c r="K12" s="51" t="str">
         <f>+[2]Main!$C$33</f>
         <v>H123</v>
       </c>
-      <c r="L12" s="68">
+      <c r="L12" s="65">
         <f>+[2]Main!$D$33</f>
         <v>45188</v>
       </c>
@@ -8230,7 +8259,7 @@
       <c r="O12" s="51"/>
       <c r="P12" s="51">
         <f>[2]Main!$C$27</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="51">
         <f>[2]Main!$C$28</f>
@@ -8244,7 +8273,7 @@
         <f>+[2]Main!$C$31</f>
         <v>438</v>
       </c>
-      <c r="V12" s="69">
+      <c r="V12" s="66">
         <f>+[2]Main!$C$38</f>
         <v>1.5479168086347954</v>
       </c>
@@ -8263,16 +8292,16 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B13" s="52" t="s">
+        <v>592</v>
+      </c>
+      <c r="C13" s="43" t="s">
         <v>593</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="D13" s="51" t="s">
         <v>594</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="E13" s="51" t="s">
         <v>595</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>596</v>
       </c>
       <c r="F13" s="56">
         <f>[3]Main!$C$6</f>
@@ -8290,6 +8319,8 @@
         <f>[3]Main!$C$12</f>
         <v>235.07715000000002</v>
       </c>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
       <c r="P13" s="51">
         <f>[3]Main!$C$25</f>
         <v>10</v>
@@ -8316,13 +8347,13 @@
         <v>196</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D14" s="51" t="s">
+        <v>594</v>
+      </c>
+      <c r="E14" s="51" t="s">
         <v>595</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>596</v>
       </c>
       <c r="F14" s="55">
         <f>[4]Main!$C$6</f>
@@ -8340,6 +8371,8 @@
         <f>[4]Main!$C$12</f>
         <v>194.14349999999999</v>
       </c>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="51"/>
@@ -8366,16 +8399,16 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>95</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F15" s="54">
         <f>[5]Main!$C$6*E21</f>
@@ -8397,6 +8430,8 @@
         <f>[5]Main!$C$12*$E$21</f>
         <v>174.636</v>
       </c>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="51"/>
@@ -8426,17 +8461,17 @@
       <c r="E16" s="51"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="67" t="s">
+        <v>581</v>
+      </c>
+      <c r="E19" s="68"/>
+      <c r="F19" s="57" t="s">
         <v>582</v>
-      </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="57" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D20" s="47" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E20" s="48">
         <v>0.8</v>
@@ -8448,7 +8483,7 @@
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D21" s="49" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E21" s="50">
         <v>0.84</v>

--- a/Overview - Video Games.xlsx
+++ b/Overview - Video Games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6F5E54-776C-42FF-9610-15F051A77210}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF104DE-1712-44AD-A7B8-B1C4B4C79511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{241F2393-9455-43D4-B289-8A800D465992}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{241F2393-9455-43D4-B289-8A800D465992}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener - Interactive Ent." sheetId="1" r:id="rId1"/>
@@ -27,6 +27,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2253,7 +2262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2445,6 +2454,9 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2454,7 +2466,10 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2476,7 +2491,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -2525,8 +2540,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -2596,15 +2614,46 @@
             <v>1.5479168086347954</v>
           </cell>
         </row>
+        <row r="39">
+          <cell r="C39">
+            <v>2.605212374027797</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>2.3117872945946476</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>19.869725992974157</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>17.983774767488896</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="26">
+          <cell r="AJ26">
+            <v>2.8235613756243727</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="AJ28">
+            <v>2.6749591136135509E-2</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -2665,7 +2714,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -2720,7 +2769,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -3079,8 +3128,8 @@
   </sheetPr>
   <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7896,7 +7945,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7924,13 +7973,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="70" t="s">
         <v>615</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
     </row>
     <row r="2" spans="1:36" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43"/>
@@ -8030,8 +8079,8 @@
       <c r="C3" s="46"/>
       <c r="D3" s="51"/>
       <c r="E3" s="51"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
       <c r="P3" s="51"/>
       <c r="Q3" s="51"/>
       <c r="R3" s="51"/>
@@ -8040,8 +8089,8 @@
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="51"/>
       <c r="R4" s="51"/>
@@ -8060,8 +8109,8 @@
       <c r="E5" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="51"/>
       <c r="R5" s="51"/>
@@ -8080,8 +8129,8 @@
       <c r="E6" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
       <c r="P6" s="51"/>
       <c r="Q6" s="51"/>
       <c r="R6" s="51"/>
@@ -8120,8 +8169,8 @@
         <f>[1]Main!$C$12*E20</f>
         <v>19269.591120000005</v>
       </c>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="51"/>
       <c r="R7" s="51"/>
@@ -8147,8 +8196,8 @@
       <c r="E8" s="51" t="s">
         <v>588</v>
       </c>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="51"/>
       <c r="R8" s="51"/>
@@ -8167,8 +8216,8 @@
       <c r="E9" s="51" t="s">
         <v>578</v>
       </c>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="51"/>
       <c r="R9" s="51"/>
@@ -8183,8 +8232,8 @@
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
       <c r="M10" s="62"/>
       <c r="N10" s="62"/>
       <c r="O10" s="51"/>
@@ -8201,8 +8250,8 @@
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="51"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
       <c r="M11" s="62"/>
       <c r="N11" s="62"/>
       <c r="O11" s="51"/>
@@ -8254,8 +8303,14 @@
         <f>+[2]Main!$D$33</f>
         <v>45188</v>
       </c>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
+      <c r="M12" s="71">
+        <f>'[2]Financial Model'!$AJ$26</f>
+        <v>2.8235613756243727</v>
+      </c>
+      <c r="N12" s="72">
+        <f>'[2]Financial Model'!$AJ$28</f>
+        <v>2.6749591136135509E-2</v>
+      </c>
       <c r="O12" s="51"/>
       <c r="P12" s="51">
         <f>[2]Main!$C$27</f>
@@ -8277,6 +8332,22 @@
         <f>+[2]Main!$C$38</f>
         <v>1.5479168086347954</v>
       </c>
+      <c r="W12" s="66">
+        <f>[2]Main!$C$39</f>
+        <v>2.605212374027797</v>
+      </c>
+      <c r="X12" s="66">
+        <f>[2]Main!$C$40</f>
+        <v>2.3117872945946476</v>
+      </c>
+      <c r="Y12" s="66">
+        <f>[2]Main!$C$41</f>
+        <v>19.869725992974157</v>
+      </c>
+      <c r="Z12" s="66">
+        <f>[2]Main!$C$42</f>
+        <v>17.983774767488896</v>
+      </c>
       <c r="AH12" s="51">
         <f>[2]Main!$C$25</f>
         <v>2018</v>
@@ -8319,8 +8390,8 @@
         <f>[3]Main!$C$12</f>
         <v>235.07715000000002</v>
       </c>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
       <c r="P13" s="51">
         <f>[3]Main!$C$25</f>
         <v>10</v>
@@ -8371,8 +8442,8 @@
         <f>[4]Main!$C$12</f>
         <v>194.14349999999999</v>
       </c>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="51"/>
@@ -8430,8 +8501,8 @@
         <f>[5]Main!$C$12*$E$21</f>
         <v>174.636</v>
       </c>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="51"/>
@@ -8461,10 +8532,10 @@
       <c r="E16" s="51"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="68" t="s">
         <v>581</v>
       </c>
-      <c r="E19" s="68"/>
+      <c r="E19" s="69"/>
       <c r="F19" s="57" t="s">
         <v>582</v>
       </c>

--- a/Overview - Video Games.xlsx
+++ b/Overview - Video Games.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF104DE-1712-44AD-A7B8-B1C4B4C79511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A3CCA2-5263-4170-BFF6-432839DABF60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{241F2393-9455-43D4-B289-8A800D465992}"/>
   </bookViews>
@@ -27,15 +27,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2457,6 +2448,12 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2464,12 +2461,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2491,7 +2482,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -2540,11 +2531,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -2653,7 +2641,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -2714,7 +2702,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -2724,12 +2712,17 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>4.9249999999999998</v>
+            <v>2.0693000000000001</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>39.025745999999998</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>194.14349999999999</v>
+            <v>80.755976197799995</v>
           </cell>
         </row>
         <row r="11">
@@ -2739,7 +2732,7 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>194.14349999999999</v>
+            <v>80.755976197799995</v>
           </cell>
         </row>
         <row r="23">
@@ -2753,13 +2746,22 @@
           </cell>
         </row>
         <row r="25">
-          <cell r="C25"/>
+          <cell r="C25">
+            <v>2013</v>
+          </cell>
         </row>
-        <row r="26">
-          <cell r="C26"/>
+        <row r="31">
+          <cell r="C31">
+            <v>915</v>
+          </cell>
         </row>
-        <row r="27">
-          <cell r="C27"/>
+        <row r="33">
+          <cell r="C33" t="str">
+            <v>FY23</v>
+          </cell>
+          <cell r="D33">
+            <v>45182</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -2769,7 +2771,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7945,7 +7947,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V18" sqref="V18"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7973,13 +7975,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="72" t="s">
         <v>615</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
     </row>
     <row r="2" spans="1:36" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43"/>
@@ -8303,11 +8305,11 @@
         <f>+[2]Main!$D$33</f>
         <v>45188</v>
       </c>
-      <c r="M12" s="71">
+      <c r="M12" s="68">
         <f>'[2]Financial Model'!$AJ$26</f>
         <v>2.8235613756243727</v>
       </c>
-      <c r="N12" s="72">
+      <c r="N12" s="69">
         <f>'[2]Financial Model'!$AJ$28</f>
         <v>2.6749591136135509E-2</v>
       </c>
@@ -8428,11 +8430,15 @@
       </c>
       <c r="F14" s="55">
         <f>[4]Main!$C$6</f>
-        <v>4.9249999999999998</v>
+        <v>2.0693000000000001</v>
+      </c>
+      <c r="G14" s="64">
+        <f>+[4]Main!$C$7</f>
+        <v>39.025745999999998</v>
       </c>
       <c r="H14" s="64">
         <f>[4]Main!$C$8</f>
-        <v>194.14349999999999</v>
+        <v>80.755976197799995</v>
       </c>
       <c r="I14" s="64">
         <f>[4]Main!$C$11</f>
@@ -8440,24 +8446,38 @@
       </c>
       <c r="J14" s="64">
         <f>[4]Main!$C$12</f>
-        <v>194.14349999999999</v>
-      </c>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
+        <v>80.755976197799995</v>
+      </c>
+      <c r="K14" s="51" t="str">
+        <f>+[4]Main!$C$33</f>
+        <v>FY23</v>
+      </c>
+      <c r="L14" s="65">
+        <f>+[4]Main!$D$33</f>
+        <v>45182</v>
+      </c>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="51"/>
       <c r="P14" s="51">
-        <f>[4]Main!$C$25</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="51">
-        <f>[4]Main!$C$26</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="51">
         <f>[4]Main!$C$27</f>
         <v>0</v>
+      </c>
+      <c r="Q14" s="51">
+        <f>[4]Main!$C$28</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="51">
+        <f>[4]Main!$C$29</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="51">
+        <f>+[4]Main!$C$31</f>
+        <v>915</v>
+      </c>
+      <c r="AH14" s="51">
+        <f>[4]Main!$C$25</f>
+        <v>2013</v>
       </c>
       <c r="AI14" s="51">
         <f>[4]Main!$C$24</f>
@@ -8532,10 +8552,10 @@
       <c r="E16" s="51"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="70" t="s">
         <v>581</v>
       </c>
-      <c r="E19" s="69"/>
+      <c r="E19" s="71"/>
       <c r="F19" s="57" t="s">
         <v>582</v>
       </c>

--- a/Overview - Video Games.xlsx
+++ b/Overview - Video Games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A3CCA2-5263-4170-BFF6-432839DABF60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807BBFE7-C7C4-44FC-833B-73660BDCE7F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{241F2393-9455-43D4-B289-8A800D465992}"/>
   </bookViews>
@@ -2584,6 +2584,12 @@
             <v>3</v>
           </cell>
         </row>
+        <row r="28">
+          <cell r="C28"/>
+        </row>
+        <row r="29">
+          <cell r="C29"/>
+        </row>
         <row r="31">
           <cell r="C31">
             <v>438</v>
@@ -2695,7 +2701,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2761,6 +2767,11 @@
           </cell>
           <cell r="D33">
             <v>45182</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>0.84148858158761264</v>
           </cell>
         </row>
       </sheetData>
@@ -7944,10 +7955,10 @@
   <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8475,6 +8486,26 @@
         <f>+[4]Main!$C$31</f>
         <v>915</v>
       </c>
+      <c r="V14" s="66">
+        <f>+[4]Main!$C$38</f>
+        <v>0.84148858158761264</v>
+      </c>
+      <c r="W14" s="66">
+        <f>+[4]Main!$C$39</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="66">
+        <f>+[4]Main!$C$40</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="66">
+        <f>+[4]Main!$C$41</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="66">
+        <f>+[4]Main!$C$42</f>
+        <v>0</v>
+      </c>
       <c r="AH14" s="51">
         <f>[4]Main!$C$25</f>
         <v>2013</v>

--- a/Overview - Video Games.xlsx
+++ b/Overview - Video Games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807BBFE7-C7C4-44FC-833B-73660BDCE7F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE25567-9E9E-497D-87BA-40411CCE2DF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{241F2393-9455-43D4-B289-8A800D465992}"/>
   </bookViews>
@@ -2584,12 +2584,6 @@
             <v>3</v>
           </cell>
         </row>
-        <row r="28">
-          <cell r="C28"/>
-        </row>
-        <row r="29">
-          <cell r="C29"/>
-        </row>
         <row r="31">
           <cell r="C31">
             <v>438</v>
@@ -2733,12 +2727,12 @@
         </row>
         <row r="11">
           <cell r="C11">
-            <v>0</v>
+            <v>28.311</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>80.755976197799995</v>
+            <v>52.444976197799996</v>
           </cell>
         </row>
         <row r="23">
@@ -2774,8 +2768,28 @@
             <v>0.84148858158761264</v>
           </cell>
         </row>
+        <row r="39">
+          <cell r="C39">
+            <v>0.7722302290011952</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>0.50150586849438195</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>-3.8629981438794552</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>-2.5087288303181059</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7955,10 +7969,10 @@
   <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X19" sqref="X19"/>
+      <selection pane="bottomRight" activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8453,11 +8467,11 @@
       </c>
       <c r="I14" s="64">
         <f>[4]Main!$C$11</f>
-        <v>0</v>
+        <v>28.311</v>
       </c>
       <c r="J14" s="64">
         <f>[4]Main!$C$12</f>
-        <v>80.755976197799995</v>
+        <v>52.444976197799996</v>
       </c>
       <c r="K14" s="51" t="str">
         <f>+[4]Main!$C$33</f>
@@ -8492,19 +8506,19 @@
       </c>
       <c r="W14" s="66">
         <f>+[4]Main!$C$39</f>
-        <v>0</v>
+        <v>0.7722302290011952</v>
       </c>
       <c r="X14" s="66">
         <f>+[4]Main!$C$40</f>
-        <v>0</v>
+        <v>0.50150586849438195</v>
       </c>
       <c r="Y14" s="66">
         <f>+[4]Main!$C$41</f>
-        <v>0</v>
+        <v>-3.8629981438794552</v>
       </c>
       <c r="Z14" s="66">
         <f>+[4]Main!$C$42</f>
-        <v>0</v>
+        <v>-2.5087288303181059</v>
       </c>
       <c r="AH14" s="51">
         <f>[4]Main!$C$25</f>
